--- a/src/test/resources/Tests/IntakeCreation.xlsx
+++ b/src/test/resources/Tests/IntakeCreation.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Intake_Creation" sheetId="2" r:id="rId1"/>
     <sheet name="Intake_Creation_Data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Script</t>
   </si>
@@ -38,33 +38,21 @@
     <t>username</t>
   </si>
   <si>
-    <t>login_UserName</t>
-  </si>
-  <si>
     <t>Enter User Name</t>
   </si>
   <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>login_Password</t>
-  </si>
-  <si>
     <t>Enter Password</t>
   </si>
   <si>
     <t>Click</t>
   </si>
   <si>
-    <t>login_loginbtn</t>
-  </si>
-  <si>
     <t>Click Login button</t>
   </si>
   <si>
-    <t>Click All Tab</t>
-  </si>
-  <si>
     <t>selectfromDropdown</t>
   </si>
   <si>
@@ -74,51 +62,24 @@
     <t>IntakeCreation</t>
   </si>
   <si>
-    <t>Home_IntakeTab</t>
-  </si>
-  <si>
-    <t>Intake_New</t>
-  </si>
-  <si>
-    <t>Click Person Search</t>
-  </si>
-  <si>
     <t>Records</t>
   </si>
   <si>
-    <t>Intake_RecordType</t>
-  </si>
-  <si>
-    <t>Enter PID</t>
-  </si>
-  <si>
-    <t>Intake_Continue_Button</t>
-  </si>
-  <si>
     <t>Click Search</t>
   </si>
   <si>
     <t>switchToiFrame</t>
   </si>
   <si>
-    <t>Intake_Question_iFrame</t>
-  </si>
-  <si>
     <t>Switch To iFrame</t>
   </si>
   <si>
-    <t>Intake_Question_Edit</t>
-  </si>
-  <si>
     <t>Edit Intake Questionnaire</t>
   </si>
   <si>
     <t>Allegation</t>
   </si>
   <si>
-    <t>Intake_Maltreatment</t>
-  </si>
-  <si>
     <t>Select Allegation</t>
   </si>
   <si>
@@ -128,9 +89,6 @@
     <t>Wait for page to load</t>
   </si>
   <si>
-    <t>Intake_Questionnaire_Save</t>
-  </si>
-  <si>
     <t>Save</t>
   </si>
   <si>
@@ -140,12 +98,6 @@
     <t>Switch back to default</t>
   </si>
   <si>
-    <t>Intake_Edit</t>
-  </si>
-  <si>
-    <t>Edit Intake</t>
-  </si>
-  <si>
     <t>PID</t>
   </si>
   <si>
@@ -168,12 +120,54 @@
   </si>
   <si>
     <t>0000</t>
+  </si>
+  <si>
+    <t>Login_Username_Text</t>
+  </si>
+  <si>
+    <t>Login_Password_Text</t>
+  </si>
+  <si>
+    <t>Login_Login_Button</t>
+  </si>
+  <si>
+    <t>Home_Intakes_Tab</t>
+  </si>
+  <si>
+    <t>Click on Tab Intakes</t>
+  </si>
+  <si>
+    <t>Intakes_New_Button</t>
+  </si>
+  <si>
+    <t>Click new button</t>
+  </si>
+  <si>
+    <t>Intakes_RecordType_List</t>
+  </si>
+  <si>
+    <t>Select Record Type of new Intake record</t>
+  </si>
+  <si>
+    <t>Intakes_Continue_Button</t>
+  </si>
+  <si>
+    <t>Intakes_Question_iFrame</t>
+  </si>
+  <si>
+    <t>Intakes_EditIntakeQuestionnaire_Button</t>
+  </si>
+  <si>
+    <t>Intakes_MaltreatmentTypes_List</t>
+  </si>
+  <si>
+    <t>Intakes_SaveIntakeQuestionnaire_Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -588,15 +582,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="35" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -619,7 +615,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -628,207 +624,205 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -857,25 +851,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
@@ -883,22 +877,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
